--- a/intel_IP/HINS/HINS_FPGA pin define.xlsx
+++ b/intel_IP/HINS/HINS_FPGA pin define.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\HINS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7810AD7F-4F57-435B-9E43-2A3996F78125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB0DD30-085F-4CF6-AD6F-D978D142BA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$E$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="252">
   <si>
     <t>D1_13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1030,6 +1030,22 @@
   </si>
   <si>
     <t>外接到 Carrier J14 SYNC_IN(P7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已寫入 pin map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已寫入Top level port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專用pin，預設input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1371,12 +1387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1387,9 +1402,11 @@
     <col min="4" max="4" width="23.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1408,8 +1425,14 @@
       <c r="F1" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1425,8 +1448,11 @@
       <c r="E2" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1442,8 +1468,11 @@
       <c r="E3" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1459,8 +1488,11 @@
       <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1476,8 +1508,11 @@
       <c r="E5" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1493,8 +1528,11 @@
       <c r="E6" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1510,8 +1548,11 @@
       <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -1527,8 +1568,11 @@
       <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -1544,8 +1588,11 @@
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
@@ -1561,8 +1608,11 @@
       <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1578,8 +1628,11 @@
       <c r="E11" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1595,8 +1648,11 @@
       <c r="E12" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -1612,8 +1668,11 @@
       <c r="E13" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -1629,8 +1688,11 @@
       <c r="E14" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1646,8 +1708,11 @@
       <c r="E15" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1666,8 +1731,11 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -1686,8 +1754,11 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1703,8 +1774,11 @@
       <c r="E18" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1721,8 +1795,11 @@
         <v>97</v>
       </c>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -1741,8 +1818,11 @@
       <c r="F20" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
@@ -1759,8 +1839,11 @@
         <v>103</v>
       </c>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -1777,8 +1860,11 @@
         <v>104</v>
       </c>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
@@ -1795,8 +1881,11 @@
         <v>105</v>
       </c>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -1812,8 +1901,11 @@
       <c r="E24" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -1829,8 +1921,11 @@
       <c r="E25" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -1846,8 +1941,11 @@
       <c r="E26" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -1863,8 +1961,11 @@
       <c r="E27" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -1880,8 +1981,11 @@
       <c r="E28" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
@@ -1897,8 +2001,11 @@
       <c r="E29" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -1914,8 +2021,11 @@
       <c r="E30" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -1931,8 +2041,11 @@
       <c r="E31" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -1948,8 +2061,11 @@
       <c r="E32" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -1965,8 +2081,11 @@
       <c r="E33" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -1982,8 +2101,11 @@
       <c r="E34" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -1999,8 +2121,11 @@
       <c r="E35" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -2016,8 +2141,11 @@
       <c r="E36" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2033,8 +2161,11 @@
       <c r="E37" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -2053,8 +2184,11 @@
       <c r="F38" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -2070,8 +2204,11 @@
       <c r="E39" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -2087,8 +2224,11 @@
       <c r="E40" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>203</v>
       </c>
@@ -2105,8 +2245,11 @@
         <v>129</v>
       </c>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>203</v>
       </c>
@@ -2125,8 +2268,11 @@
       <c r="F42" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>204</v>
       </c>
@@ -2143,8 +2289,11 @@
         <v>149</v>
       </c>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>204</v>
       </c>
@@ -2161,8 +2310,11 @@
         <v>159</v>
       </c>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
@@ -2179,8 +2331,11 @@
         <v>157</v>
       </c>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>204</v>
       </c>
@@ -2197,8 +2352,11 @@
         <v>171</v>
       </c>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
@@ -2214,8 +2372,11 @@
       <c r="E47" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2231,8 +2392,11 @@
       <c r="E48" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -2248,8 +2412,11 @@
       <c r="E49" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2265,8 +2432,11 @@
       <c r="E50" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
@@ -2282,8 +2452,11 @@
       <c r="E51" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2299,8 +2472,11 @@
       <c r="E52" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -2316,8 +2492,11 @@
       <c r="E53" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -2333,8 +2512,11 @@
       <c r="E54" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
@@ -2350,8 +2532,11 @@
       <c r="E55" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -2367,8 +2552,11 @@
       <c r="E56" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -2384,8 +2572,11 @@
       <c r="E57" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
@@ -2401,8 +2592,11 @@
       <c r="E58" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
@@ -2418,8 +2612,11 @@
       <c r="E59" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -2435,8 +2632,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2452,8 +2652,11 @@
       <c r="E61" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2469,8 +2672,11 @@
       <c r="E62" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2486,8 +2692,11 @@
       <c r="E63" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -2503,8 +2712,11 @@
       <c r="E64" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -2520,8 +2732,11 @@
       <c r="E65" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2537,8 +2752,11 @@
       <c r="E66" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -2554,8 +2772,11 @@
       <c r="E67" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -2571,8 +2792,11 @@
       <c r="E68" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -2588,8 +2812,11 @@
       <c r="E69" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -2605,8 +2832,11 @@
       <c r="E70" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2852,11 @@
       <c r="E71" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
@@ -2639,8 +2872,11 @@
       <c r="E72" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2656,8 +2892,11 @@
       <c r="E73" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>65</v>
       </c>
@@ -2673,8 +2912,11 @@
       <c r="E74" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>65</v>
       </c>
@@ -2690,8 +2932,11 @@
       <c r="E75" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>65</v>
       </c>
@@ -2707,8 +2952,11 @@
       <c r="E76" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>65</v>
       </c>
@@ -2724,8 +2972,11 @@
       <c r="E77" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>65</v>
       </c>
@@ -2741,8 +2992,11 @@
       <c r="E78" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>65</v>
       </c>
@@ -2758,8 +3012,11 @@
       <c r="E79" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -2775,8 +3032,11 @@
       <c r="E80" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>65</v>
       </c>
@@ -2792,8 +3052,11 @@
       <c r="E81" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>209</v>
       </c>
@@ -2812,8 +3075,11 @@
       <c r="F82" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>209</v>
       </c>
@@ -2832,8 +3098,11 @@
       <c r="F83" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>215</v>
       </c>
@@ -2852,8 +3121,11 @@
       <c r="F84" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
@@ -2872,8 +3144,11 @@
       <c r="F85" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>219</v>
       </c>
@@ -2892,8 +3167,11 @@
       <c r="F86" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -2912,8 +3190,11 @@
       <c r="F87" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>223</v>
       </c>
@@ -2923,8 +3204,11 @@
       <c r="E88" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>224</v>
       </c>
@@ -2934,8 +3218,11 @@
       <c r="E89" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>227</v>
       </c>
@@ -2945,8 +3232,11 @@
       <c r="E90" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>228</v>
       </c>
@@ -2956,8 +3246,11 @@
       <c r="E91" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
@@ -2973,8 +3266,11 @@
       <c r="F92" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>231</v>
       </c>
@@ -2990,8 +3286,11 @@
       <c r="F93" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -3007,8 +3306,11 @@
       <c r="F94" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>237</v>
       </c>
@@ -3021,8 +3323,11 @@
       <c r="E95" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3035,8 +3340,11 @@
       <c r="E96" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>237</v>
       </c>
@@ -3049,8 +3357,11 @@
       <c r="E97" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>237</v>
       </c>
@@ -3063,8 +3374,11 @@
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>241</v>
       </c>
@@ -3080,41 +3394,34 @@
       <c r="F99" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="G99" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="B100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="G100" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E107" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FPGA_RST"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/intel_IP/HINS/HINS_FPGA pin define.xlsx
+++ b/intel_IP/HINS/HINS_FPGA pin define.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\HINS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB0DD30-085F-4CF6-AD6F-D978D142BA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD68E5A-1ECB-43E4-8591-F7D722BB66E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="252">
   <si>
     <t>D1_13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1387,11 +1387,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82:H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1432,7 +1433,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1451,8 +1452,11 @@
       <c r="G2" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1471,8 +1475,11 @@
       <c r="G3" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1491,8 +1498,11 @@
       <c r="G4" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1511,8 +1521,11 @@
       <c r="G5" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1531,8 +1544,11 @@
       <c r="G6" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1551,8 +1567,11 @@
       <c r="G7" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -1571,8 +1590,11 @@
       <c r="G8" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -1591,8 +1613,11 @@
       <c r="G9" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
@@ -1611,8 +1636,11 @@
       <c r="G10" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1631,8 +1659,11 @@
       <c r="G11" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1651,8 +1682,11 @@
       <c r="G12" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -1671,8 +1705,11 @@
       <c r="G13" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -1691,8 +1728,11 @@
       <c r="G14" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1711,8 +1751,11 @@
       <c r="G15" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1734,8 +1777,11 @@
       <c r="G16" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -1757,8 +1803,11 @@
       <c r="G17" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1777,8 +1826,11 @@
       <c r="G18" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1798,8 +1850,11 @@
       <c r="G19" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -1821,8 +1876,11 @@
       <c r="G20" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
@@ -1842,8 +1900,11 @@
       <c r="G21" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -1863,8 +1924,11 @@
       <c r="G22" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
@@ -1884,8 +1948,11 @@
       <c r="G23" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -1904,8 +1971,11 @@
       <c r="G24" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -1924,8 +1994,11 @@
       <c r="G25" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="G26" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -1964,8 +2040,11 @@
       <c r="G27" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -1984,8 +2063,11 @@
       <c r="G28" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
@@ -2004,8 +2086,11 @@
       <c r="G29" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -2024,8 +2109,11 @@
       <c r="G30" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -2044,8 +2132,11 @@
       <c r="G31" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -2064,8 +2155,11 @@
       <c r="G32" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -2084,8 +2178,11 @@
       <c r="G33" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -2104,8 +2201,11 @@
       <c r="G34" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2124,8 +2224,11 @@
       <c r="G35" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -2144,8 +2247,11 @@
       <c r="G36" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2164,8 +2270,11 @@
       <c r="G37" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -2187,8 +2296,11 @@
       <c r="G38" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -2207,8 +2319,11 @@
       <c r="G39" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -2227,8 +2342,11 @@
       <c r="G40" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>203</v>
       </c>
@@ -2248,8 +2366,11 @@
       <c r="G41" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>203</v>
       </c>
@@ -2271,8 +2392,11 @@
       <c r="G42" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>204</v>
       </c>
@@ -2292,8 +2416,11 @@
       <c r="G43" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>204</v>
       </c>
@@ -2313,8 +2440,11 @@
       <c r="G44" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
@@ -2334,8 +2464,11 @@
       <c r="G45" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>204</v>
       </c>
@@ -2355,8 +2488,11 @@
       <c r="G46" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
@@ -2375,8 +2511,11 @@
       <c r="G47" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2395,8 +2534,11 @@
       <c r="G48" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -2415,8 +2557,11 @@
       <c r="G49" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2435,8 +2580,11 @@
       <c r="G50" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
@@ -2455,8 +2603,11 @@
       <c r="G51" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2475,8 +2626,11 @@
       <c r="G52" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -2495,8 +2649,11 @@
       <c r="G53" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -2515,8 +2672,11 @@
       <c r="G54" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
@@ -2535,8 +2695,11 @@
       <c r="G55" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -2555,8 +2718,11 @@
       <c r="G56" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -2575,8 +2741,11 @@
       <c r="G57" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
@@ -2595,8 +2764,11 @@
       <c r="G58" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
@@ -2615,8 +2787,11 @@
       <c r="G59" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -2635,8 +2810,11 @@
       <c r="G60" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2655,8 +2833,11 @@
       <c r="G61" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2675,8 +2856,11 @@
       <c r="G62" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2695,8 +2879,11 @@
       <c r="G63" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -2715,8 +2902,11 @@
       <c r="G64" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -2735,8 +2925,11 @@
       <c r="G65" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2755,8 +2948,11 @@
       <c r="G66" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -2775,8 +2971,11 @@
       <c r="G67" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2994,11 @@
       <c r="G68" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -2815,8 +3017,11 @@
       <c r="G69" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -2835,8 +3040,11 @@
       <c r="G70" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
@@ -2855,8 +3063,11 @@
       <c r="G71" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
@@ -2875,8 +3086,11 @@
       <c r="G72" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2895,8 +3109,11 @@
       <c r="G73" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>65</v>
       </c>
@@ -2915,8 +3132,11 @@
       <c r="G74" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>65</v>
       </c>
@@ -2935,8 +3155,11 @@
       <c r="G75" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>65</v>
       </c>
@@ -2955,8 +3178,11 @@
       <c r="G76" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>65</v>
       </c>
@@ -2975,8 +3201,11 @@
       <c r="G77" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>65</v>
       </c>
@@ -2995,8 +3224,11 @@
       <c r="G78" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>65</v>
       </c>
@@ -3015,8 +3247,11 @@
       <c r="G79" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -3035,8 +3270,11 @@
       <c r="G80" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>65</v>
       </c>
@@ -3055,8 +3293,11 @@
       <c r="G81" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>209</v>
       </c>
@@ -3078,8 +3319,11 @@
       <c r="G82" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>209</v>
       </c>
@@ -3101,8 +3345,11 @@
       <c r="G83" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>215</v>
       </c>
@@ -3124,8 +3371,11 @@
       <c r="G84" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
@@ -3147,8 +3397,11 @@
       <c r="G85" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>219</v>
       </c>
@@ -3170,8 +3423,11 @@
       <c r="G86" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -3193,8 +3449,11 @@
       <c r="G87" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>223</v>
       </c>
@@ -3207,8 +3466,11 @@
       <c r="G88" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>224</v>
       </c>
@@ -3221,8 +3483,11 @@
       <c r="G89" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>227</v>
       </c>
@@ -3235,8 +3500,11 @@
       <c r="G90" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>228</v>
       </c>
@@ -3249,8 +3517,11 @@
       <c r="G91" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
@@ -3269,8 +3540,11 @@
       <c r="G92" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>231</v>
       </c>
@@ -3289,8 +3563,11 @@
       <c r="G93" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -3309,8 +3586,11 @@
       <c r="G94" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>237</v>
       </c>
@@ -3326,8 +3606,11 @@
       <c r="G95" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3343,8 +3626,11 @@
       <c r="G96" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>237</v>
       </c>
@@ -3360,8 +3646,11 @@
       <c r="G97" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>237</v>
       </c>
@@ -3377,8 +3666,11 @@
       <c r="G98" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>241</v>
       </c>
@@ -3398,7 +3690,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>244</v>
       </c>
@@ -3417,9 +3709,16 @@
       <c r="G100" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="H100" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H100" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/intel_IP/HINS/HINS_FPGA pin define.xlsx
+++ b/intel_IP/HINS/HINS_FPGA pin define.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\HINS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD68E5A-1ECB-43E4-8591-F7D722BB66E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D278633F-F5C5-4ECB-89F3-849E8539564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,7 +1387,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1433,7 +1432,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>203</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>203</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>204</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>204</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>204</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -2814,7 +2813,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>65</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>65</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>65</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>65</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>65</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>65</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>65</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>215</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
@@ -3401,7 +3400,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>219</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>223</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>224</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>227</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>228</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>231</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>237</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>237</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>237</v>
       </c>
@@ -3714,11 +3713,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H100" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/intel_IP/HINS/HINS_FPGA pin define.xlsx
+++ b/intel_IP/HINS/HINS_FPGA pin define.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\HINS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D278633F-F5C5-4ECB-89F3-849E8539564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A647FBE-2CFD-4201-9E38-290884CE7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,10 +1387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H82" sqref="H82:H83"/>
     </sheetView>
   </sheetViews>
@@ -1432,7 +1433,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>204</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>204</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>204</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>65</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>65</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>65</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>65</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>65</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>65</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>65</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>209</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>209</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>215</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>219</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>223</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>224</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>227</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>228</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>231</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>237</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>237</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>237</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>241</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>244</v>
       </c>
@@ -3713,7 +3714,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H100" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DAC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/intel_IP/HINS/HINS_FPGA pin define.xlsx
+++ b/intel_IP/HINS/HINS_FPGA pin define.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\HINS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A647FBE-2CFD-4201-9E38-290884CE7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020359C8-72DC-4EE9-A023-A84AD47EE3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="253">
   <si>
     <t>D1_13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,18 +993,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DCLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FPGA_RST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,6 +1038,18 @@
   </si>
   <si>
     <t>專用pin，預設input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH_CE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1391,8 +1395,8 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82:H83"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1427,10 +1431,10 @@
         <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1450,10 +1454,10 @@
         <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1473,10 +1477,10 @@
         <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1496,10 +1500,10 @@
         <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1519,10 +1523,10 @@
         <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1542,10 +1546,10 @@
         <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1565,10 +1569,10 @@
         <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1588,10 +1592,10 @@
         <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1611,10 +1615,10 @@
         <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1634,10 +1638,10 @@
         <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1657,10 +1661,10 @@
         <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1680,10 +1684,10 @@
         <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1703,10 +1707,10 @@
         <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1726,10 +1730,10 @@
         <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1749,10 +1753,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1775,10 +1779,10 @@
         <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1801,10 +1805,10 @@
         <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1824,10 +1828,10 @@
         <v>96</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1848,10 +1852,10 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1874,13 +1878,13 @@
         <v>102</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
@@ -1898,13 +1902,13 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -1922,13 +1926,13 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
@@ -1946,13 +1950,13 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -1969,13 +1973,13 @@
         <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -1992,13 +1996,13 @@
         <v>107</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -2015,13 +2019,13 @@
         <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -2038,13 +2042,13 @@
         <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -2061,13 +2065,13 @@
         <v>110</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
@@ -2084,13 +2088,13 @@
         <v>111</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -2107,13 +2111,13 @@
         <v>112</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -2130,13 +2134,13 @@
         <v>113</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -2153,13 +2157,13 @@
         <v>114</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -2176,13 +2180,13 @@
         <v>115</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -2199,13 +2203,13 @@
         <v>116</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2222,13 +2226,13 @@
         <v>117</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -2245,13 +2249,13 @@
         <v>118</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2268,13 +2272,13 @@
         <v>120</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -2294,13 +2298,13 @@
         <v>132</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -2317,13 +2321,13 @@
         <v>127</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -2340,13 +2344,13 @@
         <v>128</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>203</v>
       </c>
@@ -2364,13 +2368,13 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>203</v>
       </c>
@@ -2390,10 +2394,10 @@
         <v>131</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2414,10 +2418,10 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2438,10 +2442,10 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2462,10 +2466,10 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2486,10 +2490,10 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2509,10 +2513,10 @@
         <v>172</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2532,10 +2536,10 @@
         <v>173</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2555,10 +2559,10 @@
         <v>174</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2578,10 +2582,10 @@
         <v>175</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2601,10 +2605,10 @@
         <v>176</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2624,10 +2628,10 @@
         <v>160</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2647,10 +2651,10 @@
         <v>161</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2670,10 +2674,10 @@
         <v>177</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2693,10 +2697,10 @@
         <v>178</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2716,10 +2720,10 @@
         <v>179</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2739,10 +2743,10 @@
         <v>181</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2762,10 +2766,10 @@
         <v>180</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2785,10 +2789,10 @@
         <v>182</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2808,10 +2812,10 @@
         <v>183</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2831,10 +2835,10 @@
         <v>184</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2854,10 +2858,10 @@
         <v>158</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2877,10 +2881,10 @@
         <v>185</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2900,10 +2904,10 @@
         <v>186</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2923,10 +2927,10 @@
         <v>187</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2946,10 +2950,10 @@
         <v>188</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2969,10 +2973,10 @@
         <v>189</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2992,10 +2996,10 @@
         <v>190</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3015,10 +3019,10 @@
         <v>191</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3038,10 +3042,10 @@
         <v>192</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3061,10 +3065,10 @@
         <v>193</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3084,10 +3088,10 @@
         <v>194</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3107,10 +3111,10 @@
         <v>195</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3130,10 +3134,10 @@
         <v>196</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3153,10 +3157,10 @@
         <v>197</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3176,10 +3180,10 @@
         <v>198</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3199,10 +3203,10 @@
         <v>199</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3222,10 +3226,10 @@
         <v>200</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3245,10 +3249,10 @@
         <v>169</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3268,10 +3272,10 @@
         <v>201</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3291,10 +3295,10 @@
         <v>202</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3317,10 +3321,10 @@
         <v>212</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3343,10 +3347,10 @@
         <v>212</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3369,10 +3373,10 @@
         <v>217</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3395,10 +3399,10 @@
         <v>212</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3421,10 +3425,10 @@
         <v>212</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3447,10 +3451,10 @@
         <v>212</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3464,10 +3468,10 @@
         <v>225</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3481,10 +3485,10 @@
         <v>226</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3498,10 +3502,10 @@
         <v>229</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3515,10 +3519,10 @@
         <v>230</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3538,10 +3542,10 @@
         <v>131</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3561,10 +3565,10 @@
         <v>131</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3584,13 +3588,13 @@
         <v>236</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>237</v>
       </c>
@@ -3598,19 +3602,19 @@
         <v>90</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3618,19 +3622,19 @@
         <v>90</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>237</v>
       </c>
@@ -3638,19 +3642,19 @@
         <v>90</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>163</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>237</v>
       </c>
@@ -3658,66 +3662,66 @@
         <v>90</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H100" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="DAC"/>
+        <filter val="EPCQ"/>
       </filters>
     </filterColumn>
   </autoFilter>
